--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Nombre</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>cdmx</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Numero contrato</t>
+  </si>
+  <si>
+    <t>12180004689941500</t>
   </si>
 </sst>
 </file>
@@ -135,10 +144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -420,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -432,100 +444,557 @@
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>34526</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1">
         <v>8100</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1">
-        <v>34526</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2">
-        <v>1.21800046899415E+16</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P2" s="1">
+        <v>210584</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -99,7 +99,7 @@
     <t>Numero contrato</t>
   </si>
   <si>
-    <t>12180004689941500</t>
+    <t>012180004689941533</t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -63,21 +63,9 @@
     <t>Entidad</t>
   </si>
   <si>
-    <t>Lujan Basilio Jose Guillermo</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
     <t>lubg940711hdfjsl04</t>
   </si>
   <si>
-    <t>LUBG940711BA1</t>
-  </si>
-  <si>
     <t>c 3 priv 209 17 col agricola pantitlan 08100 iztacalco, d.f.</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
     <t>bbva</t>
   </si>
   <si>
-    <t>Discrecional por ejecución</t>
-  </si>
-  <si>
     <t>cdmx</t>
   </si>
   <si>
@@ -100,6 +85,21 @@
   </si>
   <si>
     <t>012180004689941533</t>
+  </si>
+  <si>
+    <t>mexico</t>
+  </si>
+  <si>
+    <t>hombre</t>
+  </si>
+  <si>
+    <t>lubj940711ba1</t>
+  </si>
+  <si>
+    <t>discrecional por ejecucion</t>
+  </si>
+  <si>
+    <t>lujan basilio jose guillermo</t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -495,7 +495,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -504,49 +504,49 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3">
         <v>34526</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="J2" s="1">
         <v>8100</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P2" s="1">
         <v>210584</v>

--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>lujan basilio jose guillermo</t>
+  </si>
+  <si>
+    <t>11/07/1994</t>
+  </si>
+  <si>
+    <t>iztacalco</t>
   </si>
 </sst>
 </file>
@@ -144,11 +150,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -432,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +447,7 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.7109375" customWidth="1"/>
@@ -506,8 +512,8 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3">
-        <v>34526</v>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
@@ -525,7 +531,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
@@ -646,7 +652,6 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>

--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Nombre</t>
   </si>
@@ -106,6 +106,33 @@
   </si>
   <si>
     <t>iztacalco</t>
+  </si>
+  <si>
+    <t>huitzil mezeta victoria elena</t>
+  </si>
+  <si>
+    <t>16/03/1990</t>
+  </si>
+  <si>
+    <t>mujer</t>
+  </si>
+  <si>
+    <t>humv90316jf5</t>
+  </si>
+  <si>
+    <t>angel jalisco</t>
+  </si>
+  <si>
+    <t>vict0riahh00@gmail.com</t>
+  </si>
+  <si>
+    <t>humv900316myntzc03</t>
+  </si>
+  <si>
+    <t>012910028984168186</t>
+  </si>
+  <si>
+    <t>bancomer</t>
   </si>
 </sst>
 </file>
@@ -437,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,22 +590,54 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>45138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>208168</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>

--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Nombre</t>
   </si>
@@ -133,6 +133,57 @@
   </si>
   <si>
     <t>bancomer</t>
+  </si>
+  <si>
+    <t>divb950405cj3</t>
+  </si>
+  <si>
+    <t>divb950405mdfzyr02</t>
+  </si>
+  <si>
+    <t>priv xochitlalli</t>
+  </si>
+  <si>
+    <t>b.gabrielad@hotmail.com</t>
+  </si>
+  <si>
+    <t>brenda gabriela diaz vieyra</t>
+  </si>
+  <si>
+    <t>05/04/1995</t>
+  </si>
+  <si>
+    <t>elba araceli meza najera</t>
+  </si>
+  <si>
+    <t>mene810817mdfzjl08</t>
+  </si>
+  <si>
+    <t>mene810817rz2</t>
+  </si>
+  <si>
+    <t>calzada de las aguilas ph6</t>
+  </si>
+  <si>
+    <t>mn_ara@hotmail.com</t>
+  </si>
+  <si>
+    <t>citibanamex</t>
+  </si>
+  <si>
+    <t>mariana alejandra cortes arcos</t>
+  </si>
+  <si>
+    <t>coam901027mdfrrr05</t>
+  </si>
+  <si>
+    <t>coam901027-ak8</t>
+  </si>
+  <si>
+    <t>seis</t>
+  </si>
+  <si>
+    <t>marianiitaco@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -177,10 +228,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -464,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,66 +698,155 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.21800157811323E+16</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>207375</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3">
+        <v>29815</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>1730</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2180901355759160</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>201608</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>33173</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6">
+        <v>55707</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>2180029614721270</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1063,8 +1206,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Nombre</t>
   </si>
@@ -141,9 +141,6 @@
     <t>divb950405mdfzyr02</t>
   </si>
   <si>
-    <t>priv xochitlalli</t>
-  </si>
-  <si>
     <t>b.gabrielad@hotmail.com</t>
   </si>
   <si>
@@ -184,6 +181,18 @@
   </si>
   <si>
     <t>marianiitaco@gmail.com</t>
+  </si>
+  <si>
+    <t>echegaray naucalpan</t>
+  </si>
+  <si>
+    <t>2180901355759160</t>
+  </si>
+  <si>
+    <t>2180029614721270</t>
+  </si>
+  <si>
+    <t>012180015781132381</t>
   </si>
 </sst>
 </file>
@@ -228,12 +237,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -518,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +540,7 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -699,10 +707,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -720,18 +728,20 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="4">
-        <v>1.21800157811323E+16</v>
+      <c r="M4" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>25</v>
@@ -749,7 +759,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>29815</v>
@@ -764,28 +774,28 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>1730</v>
       </c>
       <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="4">
-        <v>2180901355759160</v>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>25</v>
@@ -803,7 +813,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3">
         <v>33173</v>
@@ -818,28 +828,28 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6">
         <v>55707</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>54</v>
+      <c r="K6" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M6">
-        <v>2180029614721270</v>
+      <c r="M6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>25</v>

--- a/Data/PrebasShell.xlsx
+++ b/Data/PrebasShell.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>Nombre</t>
   </si>
@@ -193,6 +193,51 @@
   </si>
   <si>
     <t>012180015781132381</t>
+  </si>
+  <si>
+    <t>claudia zarate arzate</t>
+  </si>
+  <si>
+    <t>zaac950404mdfrrl09</t>
+  </si>
+  <si>
+    <t>zaac9504045x5</t>
+  </si>
+  <si>
+    <t>guadalupe moral</t>
+  </si>
+  <si>
+    <t>09300</t>
+  </si>
+  <si>
+    <t>claudia_zaar@outlook.com</t>
+  </si>
+  <si>
+    <t>012180029592704185</t>
+  </si>
+  <si>
+    <t>victor hugo romero parra</t>
+  </si>
+  <si>
+    <t>parv860822hdfrmc07</t>
+  </si>
+  <si>
+    <t>parv8608223f9</t>
+  </si>
+  <si>
+    <t>2 octubre tlalpan</t>
+  </si>
+  <si>
+    <t>vhpr.urs@gmail.com</t>
+  </si>
+  <si>
+    <t>002180700564939547</t>
+  </si>
+  <si>
+    <t>banamex</t>
+  </si>
+  <si>
+    <t>AAF36601</t>
   </si>
 </sst>
 </file>
@@ -526,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,9 +581,11 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="27.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
     <col min="13" max="13" width="33.7109375" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" customWidth="1"/>
   </cols>
@@ -857,49 +904,117 @@
       <c r="O6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3">
+        <v>34793</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>209994</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="3">
+        <v>31646</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>14739</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>210245</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1217,8 +1332,10 @@
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="K6" r:id="rId2"/>
+    <hyperlink ref="K7" r:id="rId3" display="mailto:claudia_zaar@outlook.com"/>
+    <hyperlink ref="K8" r:id="rId4" display="mailto:vhpr.urs@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>